--- a/2020/December/Others/DSR Wise Retailer User ID & Password.xlsx
+++ b/2020/December/Others/DSR Wise Retailer User ID & Password.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="808">
   <si>
     <t>B.M Telecom</t>
   </si>
@@ -2442,6 +2442,9 @@
   </si>
   <si>
     <t>Web link :    https://frm.edison-bd.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2603,34 +2606,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2643,6 +2619,33 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2940,34 +2943,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="34.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="22.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="15" t="s">
@@ -2978,12 +2981,12 @@
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="17.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="17.25">
       <c r="A5" s="1" t="s">
@@ -3000,212 +3003,212 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="12" t="s">
         <v>761</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>763</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="11" t="s">
         <v>759</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="12" t="s">
         <v>766</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="12" t="s">
         <v>775</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="11" t="s">
         <v>771</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="12" t="s">
         <v>778</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="11" t="s">
         <v>772</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="12" t="s">
         <v>780</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="12" t="s">
         <v>783</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="12" t="s">
         <v>785</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="12" t="s">
         <v>786</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="12" t="s">
         <v>788</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="12" t="s">
         <v>789</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="11" t="s">
         <v>790</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="12" t="s">
         <v>791</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="12" t="s">
         <v>792</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="12" t="s">
         <v>796</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="12" t="s">
         <v>797</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="11" t="s">
         <v>794</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="12" t="s">
         <v>798</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="12" t="s">
         <v>803</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3237,36 +3240,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="17.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="17.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="17.25">
       <c r="A5" s="1" t="s">
@@ -3694,36 +3697,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="17.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="17.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="17.25">
       <c r="A5" s="1" t="s">
@@ -4211,42 +4214,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="22.5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="17.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" ht="17.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="17.25">
       <c r="A6" s="1" t="s">
@@ -4807,8 +4810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4820,36 +4823,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="17.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="17.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="17.25">
       <c r="A5" s="1" t="s">
@@ -5307,7 +5310,9 @@
       <c r="C42" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="17.25">
       <c r="A43" s="2" t="s">
@@ -5469,36 +5474,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="18.75">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="17.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="18" t="s">
         <v>623</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="17.25">
       <c r="A5" s="1" t="s">
@@ -6094,36 +6099,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="18.75">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="17.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="18" t="s">
         <v>756</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="17.25">
       <c r="A5" s="1" t="s">
@@ -6731,36 +6736,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="18.75">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="17.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="18" t="s">
         <v>805</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="17.25">
       <c r="A5" s="1" t="s">

--- a/2020/December/Others/DSR Wise Retailer User ID & Password.xlsx
+++ b/2020/December/Others/DSR Wise Retailer User ID & Password.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7950" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7950" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
@@ -4810,8 +4810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6723,8 +6723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J21" sqref="H21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/2020/December/Others/DSR Wise Retailer User ID & Password.xlsx
+++ b/2020/December/Others/DSR Wise Retailer User ID & Password.xlsx
@@ -3228,7 +3228,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5462,7 +5462,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6723,8 +6723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J21" sqref="H21:J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
